--- a/Terraform/aci/migrate-configs/143b-core01_migrate_interfaces.xlsx
+++ b/Terraform/aci/migrate-configs/143b-core01_migrate_interfaces.xlsx
@@ -495,22 +495,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="17" customWidth="1" min="11" max="11"/>
     <col width="40" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
     <col width="40" customWidth="1" min="17" max="17"/>
     <col width="40" customWidth="1" min="18" max="18"/>
   </cols>
@@ -553,7 +553,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>VPC_ID</t>
+          <t>VPC Id</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Access VLAN or Native VLAN</t>
+          <t>Access or Native VLAN</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
